--- a/results/I3_N5_M3_T30_C200_DepCentral_s1_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepCentral_s1_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>619.6202101771153</v>
+        <v>838.6154668145174</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.19570705323225</v>
+        <v>22.6154668145174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.749397854014324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.863900977906185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>500.2499999999912</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.06</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -835,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -929,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>3.695361957914272</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.60181147454999</v>
+        <v>24.4838942084626</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>26.08570568301258</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>7.44590858474082</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.48909622152298</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.2093610446023</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.39012244383432</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -999,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,118 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>121.7200000000003</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1251,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>117.2400000000003</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1262,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>122.4650000000003</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1273,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>118.4450000000003</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1284,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>116.3100000000003</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
@@ -1295,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>253.8349999999991</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
@@ -1306,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>251.0049999999991</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -1317,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>244.0249999999991</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
@@ -1328,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>252.9399999999991</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -1339,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>248.3199999999991</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
@@ -1350,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>206.7899999999994</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18">
@@ -1361,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>205.7799999999994</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
@@ -1372,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>197.3749999999994</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20">
@@ -1383,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>201.4149999999994</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21">
@@ -1394,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>199.0549999999994</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22">
@@ -1405,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>75.89000000000051</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
@@ -1416,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.69000000000051</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -1427,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.2</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -1438,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>80.25500000000051</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
@@ -1449,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>75.56500000000051</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
@@ -1460,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>177.6150000000009</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28">
@@ -1471,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>171.8100000000009</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
@@ -1482,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>178.4650000000009</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
@@ -1493,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>177.2</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31">
@@ -1504,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>179.1300000000009</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
@@ -1515,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>177.6150000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1526,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>171.8100000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1537,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.4650000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1548,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>177.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1559,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>179.1300000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1570,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>253.8349999999991</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38">
@@ -1581,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>251.0049999999991</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
@@ -1592,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>244.0249999999991</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40">
@@ -1603,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>252.9399999999991</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41">
@@ -1614,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>248.3199999999991</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42">
@@ -1771,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>53.8349999999991</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1782,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>51.00499999999914</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -1793,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>44.0249999999991</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1804,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>52.93999999999915</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11">
@@ -1815,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>48.31999999999914</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -1917,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1928,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>10.41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1939,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1950,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1961,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -2082,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2093,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -2104,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -2115,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -2126,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -2137,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2148,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2159,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2170,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2181,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2222,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2233,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2244,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2255,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2266,45 +2099,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
